--- a/opcode.xlsx
+++ b/opcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang\Desktop\cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DB60D6-161D-419B-94BD-582E483FF9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE882BD-D3A9-4844-952B-0721EA82F7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,12 +485,12 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="5" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
@@ -505,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
